--- a/Куделин/Солнечная энергетика/Solar NorthAmerica Total.xlsx
+++ b/Куделин/Солнечная энергетика/Solar NorthAmerica Total.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>482.98520102989499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>586.08471936252727</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>704.36748080577433</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>835.87665353415423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>976.59602061467285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1129.2838725397869</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91.507700350858016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.02723652594645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.59812914976001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.22995569452098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208.07741620180158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256.20523298716364</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799976832"/>
-        <c:axId val="1799964864"/>
+        <c:axId val="-85362160"/>
+        <c:axId val="-85356720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799976832"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799964864"/>
+        <c:crossAx val="-85356720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799964864"/>
+        <c:axId val="-85356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799976832"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1252.1332562150449</c:v>
+                  <c:v>22.219010268048688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.6093131163279</c:v>
+                  <c:v>30.921500552752022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1533.1931007317489</c:v>
+                  <c:v>40.408820644370259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.9046562420885</c:v>
+                  <c:v>51.728545334881446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1794.504886187596</c:v>
+                  <c:v>67.155214895759173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.9369761202802</c:v>
+                  <c:v>22.37161598763609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1434.3270968472564</c:v>
+                  <c:v>31.389022536972981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.7449895800783</c:v>
+                  <c:v>41.464124701906229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.8155193127363</c:v>
+                  <c:v>53.783580652205714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1895.2699497445558</c:v>
+                  <c:v>70.897821767517456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799968128"/>
-        <c:axId val="1799949088"/>
+        <c:axId val="-85361616"/>
+        <c:axId val="-85345840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799968128"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799949088"/>
+        <c:crossAx val="-85345840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799949088"/>
+        <c:axId val="-85345840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799968128"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.1813684196482</c:v>
+                  <c:v>22.757205435070798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.0901965654541</c:v>
+                  <c:v>32.395698790841344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.6190769977088</c:v>
+                  <c:v>43.542731912018475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.5507655466452</c:v>
+                  <c:v>57.605979297352079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.6674353514959</c:v>
+                  <c:v>77.598128852609506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.5792380579767</c:v>
+                  <c:v>22.764102199519538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.921233487044</c:v>
+                  <c:v>32.413588647161696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1655.0475067011439</c:v>
+                  <c:v>43.579904722083576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.7353665117462</c:v>
+                  <c:v>57.675142329935049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.9795060917163</c:v>
+                  <c:v>77.721145484312345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799952896"/>
-        <c:axId val="1799961600"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85358896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799952896"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799961600"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799961600"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799952896"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.63888277948860384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.6992299715988195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.74965579192971099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.81185196528479286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.90528789922853969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>1.0594311355048751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>1.423788417945723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>1.7994765721321591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>2.255640902039568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>2.9718345488807878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>4.1876869395573308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>5.7628250982908593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>7.8187626848272016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>12.698194298744079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>21.073503873656769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>33.912263179829672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>65.648612993412343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>101.52151966290219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>138.59293640973411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>197.26150234678809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>255.9794773336148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>328.41494798557272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>445.47996089304161</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>575.760244320575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>705.2251576877859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>854.37473965683262</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>1059.2936809324981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>1322.6156827866339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799953440"/>
-        <c:axId val="1799967584"/>
+        <c:axId val="-85353456"/>
+        <c:axId val="-85348560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799953440"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799967584"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799967584"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799953440"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799963776"/>
-        <c:axId val="1799972480"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799963776"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799972480"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799972480"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799963776"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799971392"/>
-        <c:axId val="1799951808"/>
+        <c:axId val="-85347472"/>
+        <c:axId val="-85357808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799971392"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799951808"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799951808"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799971392"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799954528"/>
-        <c:axId val="1799975744"/>
+        <c:axId val="-85352368"/>
+        <c:axId val="-85351824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799954528"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799975744"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799975744"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799954528"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.69120891959842867</v>
+        <v>-1.4113195565970151</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.90106285734009894</v>
+        <v>-4.3463337672919407</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>1.1657265561774919</v>
+        <v>-134.2735692585332</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.5056783604541382</v>
+        <v>-87153.439631134679</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.940662905474988</v>
+        <v>-30587308153.053631</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.5042458134856158</v>
+        <v>-3.2090876144843447E+21</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>3.2049718626643049</v>
+        <v>-2.6283730398629611E+43</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>4.1090201114356075</v>
+        <v>-1.3950736044498004E+87</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>5.2569908693359286</v>
-      </c>
-      <c r="O16">
+        <v>-3.1354046142096462E+174</v>
+      </c>
+      <c r="O16" t="e">
         <f t="shared" si="6"/>
-        <v>6.7207966104669108</v>
-      </c>
-      <c r="P16">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" t="e">
         <f t="shared" si="6"/>
-        <v>8.5667438786254149</v>
-      </c>
-      <c r="Q16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q16" t="e">
         <f t="shared" si="6"/>
-        <v>10.889830530164318</v>
-      </c>
-      <c r="R16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R16" t="e">
         <f t="shared" si="6"/>
-        <v>13.814613260259861</v>
-      </c>
-      <c r="S16">
+        <v>#NUM!</v>
+      </c>
+      <c r="S16" t="e">
         <f t="shared" si="6"/>
-        <v>17.430437855661708</v>
-      </c>
-      <c r="T16">
+        <v>#NUM!</v>
+      </c>
+      <c r="T16" t="e">
         <f t="shared" si="6"/>
-        <v>21.851646242815079</v>
-      </c>
-      <c r="U16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U16" t="e">
         <f t="shared" si="6"/>
-        <v>27.419694609008172</v>
-      </c>
-      <c r="V16">
+        <v>#NUM!</v>
+      </c>
+      <c r="V16" t="e">
         <f t="shared" si="6"/>
-        <v>34.140336587640043</v>
-      </c>
-      <c r="W16">
+        <v>#NUM!</v>
+      </c>
+      <c r="W16" t="e">
         <f t="shared" si="6"/>
-        <v>42.191823380538473</v>
-      </c>
-      <c r="X16">
+        <v>#NUM!</v>
+      </c>
+      <c r="X16" t="e">
         <f t="shared" si="6"/>
-        <v>51.727281736163768</v>
-      </c>
-      <c r="Y16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y16" t="e">
         <f t="shared" si="6"/>
-        <v>62.775486004334041</v>
-      </c>
-      <c r="Z16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z16" t="e">
         <f t="shared" si="6"/>
-        <v>75.027988349857637</v>
-      </c>
-      <c r="AA16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" si="6"/>
-        <v>88.625640049914466</v>
-      </c>
-      <c r="AB16" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB16" s="43" t="e">
         <f t="shared" si="6"/>
-        <v>103.0995183326323</v>
-      </c>
-      <c r="AC16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>118.2827614432471</v>
-      </c>
-      <c r="AD16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>131.50917272837995</v>
-      </c>
-      <c r="AE16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>140.71936708051868</v>
-      </c>
-      <c r="AF16" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF16" s="45" t="e">
         <f t="shared" si="6"/>
-        <v>152.68785192511399</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,367 +14539,367 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>1.2145225980769316</v>
+        <v>-0.88800587811851228</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>2.1155854554170306</v>
+        <v>-5.2343396454104525</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>3.2813120115945225</v>
+        <v>-139.50790890394364</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>4.7869903720486606</v>
+        <v>-87292.947540038629</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>6.7276532775236486</v>
+        <v>-30587395446.001171</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>9.2318990910092644</v>
+        <v>-3.2090876145149322E+21</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>12.436870953673569</v>
+        <v>-2.6283730398629611E+43</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>16.545891065109178</v>
+        <v>-1.3950736044498004E+87</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>21.802881934445107</v>
-      </c>
-      <c r="O17" s="6">
+        <v>-3.1354046142096462E+174</v>
+      </c>
+      <c r="O17" s="6" t="e">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>28.523678544912016</v>
-      </c>
-      <c r="P17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="6" t="e">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>37.090422423537433</v>
-      </c>
-      <c r="Q17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q17" s="6" t="e">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>47.980252953701751</v>
-      </c>
-      <c r="R17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="R17" s="6" t="e">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>61.794866213961612</v>
-      </c>
-      <c r="S17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="S17" s="6" t="e">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>79.22530406962332</v>
-      </c>
-      <c r="T17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="T17" s="6" t="e">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>101.0769503124384</v>
-      </c>
-      <c r="U17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="U17" s="6" t="e">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>128.49664492144657</v>
-      </c>
-      <c r="V17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="V17" s="6" t="e">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>162.63698150908661</v>
-      </c>
-      <c r="W17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="W17" s="6" t="e">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>204.82880488962508</v>
-      </c>
-      <c r="X17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="X17" s="6" t="e">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>256.55608662578885</v>
-      </c>
-      <c r="Y17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y17" s="6" t="e">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>319.33157263012288</v>
-      </c>
-      <c r="Z17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>394.35956097998053</v>
-      </c>
-      <c r="AA17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA17" s="6" t="e">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>482.98520102989499</v>
-      </c>
-      <c r="AB17" s="49">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB17" s="49" t="e">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>586.08471936252727</v>
-      </c>
-      <c r="AC17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC17" s="50" t="e">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>704.36748080577433</v>
-      </c>
-      <c r="AD17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD17" s="50" t="e">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>835.87665353415423</v>
-      </c>
-      <c r="AE17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="50" t="e">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>976.59602061467285</v>
-      </c>
-      <c r="AF17" s="51">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF17" s="51" t="e">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1129.2838725397869</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="17" t="e">
         <f>AF17-$AF$3</f>
-        <v>897.82497259553304</v>
-      </c>
-      <c r="C18" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="C18" s="18" t="e">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>497.65759181816321</v>
+        <v>#NUM!</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="e">
         <f>SUM(F18:AA18)</f>
-        <v>497239.8036352261</v>
+        <v>#NUM!</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.43730002506965643</v>
+        <v>2.0771780198794407</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>2.4647190133543155</v>
+        <v>33.408200485618622</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>7.5051199698340536</v>
+        <v>19613.9110511449</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>18.048776336325158</v>
+        <v>7620152723.3937721</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>38.263126608192337</v>
+        <v>9.3558876020320594E+20</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>74.476366462388398</v>
+        <v>1.0298243317633139E+43</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>139.3470823082292</v>
+        <v>6.9083448366784632E+86</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>252.95144306191523</v>
-      </c>
-      <c r="N18">
+        <v>1.9462303618325583E+174</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="32"/>
-        <v>444.42906625181394</v>
-      </c>
-      <c r="O18">
+        <v>#NUM!</v>
+      </c>
+      <c r="O18" t="e">
         <f t="shared" si="32"/>
-        <v>769.99467557052003</v>
-      </c>
-      <c r="P18">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" t="e">
         <f t="shared" si="32"/>
-        <v>1312.9745216395108</v>
-      </c>
-      <c r="Q18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q18" t="e">
         <f t="shared" si="32"/>
-        <v>2194.9077380656049</v>
-      </c>
-      <c r="R18">
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" t="e">
         <f t="shared" si="32"/>
-        <v>3612.9480596584353</v>
-      </c>
-      <c r="S18">
+        <v>#NUM!</v>
+      </c>
+      <c r="S18" t="e">
         <f t="shared" si="32"/>
-        <v>5931.0551040620239</v>
-      </c>
-      <c r="T18">
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" t="e">
         <f t="shared" si="32"/>
-        <v>9560.4118031490925</v>
-      </c>
-      <c r="U18">
+        <v>#NUM!</v>
+      </c>
+      <c r="U18" t="e">
         <f t="shared" si="32"/>
-        <v>15164.697340359306</v>
-      </c>
-      <c r="V18">
+        <v>#NUM!</v>
+      </c>
+      <c r="V18" t="e">
         <f t="shared" si="32"/>
-        <v>23302.071556496543</v>
-      </c>
-      <c r="W18">
+        <v>#NUM!</v>
+      </c>
+      <c r="W18" t="e">
         <f t="shared" si="32"/>
-        <v>35037.894596747916</v>
-      </c>
-      <c r="X18">
+        <v>#NUM!</v>
+      </c>
+      <c r="X18" t="e">
         <f t="shared" si="32"/>
-        <v>50624.425801414975</v>
-      </c>
-      <c r="Y18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y18" t="e">
         <f t="shared" si="32"/>
-        <v>76622.757989861348</v>
-      </c>
-      <c r="Z18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z18" t="e">
         <f t="shared" si="32"/>
-        <v>111993.80880994332</v>
-      </c>
-      <c r="AA18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA18" t="e">
         <f t="shared" si="32"/>
-        <v>160133.9326382204</v>
-      </c>
-      <c r="AB18" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB18" s="43" t="e">
         <f t="shared" si="32"/>
-        <v>234999.97393484425</v>
-      </c>
-      <c r="AC18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>339131.08626436297</v>
-      </c>
-      <c r="AD18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>467471.96406076319</v>
-      </c>
-      <c r="AE18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>616463.12302823598</v>
-      </c>
-      <c r="AF18" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF18" s="45" t="e">
         <f t="shared" si="32"/>
-        <v>806089.68141616962</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="20" t="e">
         <f>(B18/$AF$3)*100</f>
-        <v>387.89822850267205</v>
-      </c>
-      <c r="C19" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="C19" s="21" t="e">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>334.80488223731339</v>
+        <v>#NUM!</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="5" t="e">
         <f>SUM(F19:AA19)</f>
-        <v>2118.1657688842211</v>
+        <v>#NUM!</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.66128664364982936</v>
+        <v>1.4412418325456144</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.5699423598827811</v>
+        <v>5.7799827409447015</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.7395474023703357</v>
+        <v>140.04967351316782</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>4.2483851445372931</v>
+        <v>87293.486145266143</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>6.1857195707688151</v>
+        <v>30587395446.543106</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>8.6299690881479059</v>
+        <v>3.2090876145149322E+21</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>11.804536513909778</v>
+        <v>2.6283730398629611E+43</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>15.904447273071618</v>
-      </c>
-      <c r="N19">
+        <v>1.3950736044498004E+87</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>21.081486338771608</v>
-      </c>
-      <c r="O19">
+        <v>#NUM!</v>
+      </c>
+      <c r="O19" t="e">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>27.748777911297644</v>
-      </c>
-      <c r="P19">
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" t="e">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>36.234990294458626</v>
-      </c>
-      <c r="Q19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" t="e">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>46.849842455077741</v>
-      </c>
-      <c r="R19">
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" t="e">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>60.107803650261879</v>
-      </c>
-      <c r="S19">
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" t="e">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>77.013343675378906</v>
-      </c>
-      <c r="T19">
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" t="e">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>97.777358335910733</v>
-      </c>
-      <c r="U19">
+        <v>#NUM!</v>
+      </c>
+      <c r="U19" t="e">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>123.1450256419613</v>
-      </c>
-      <c r="V19">
+        <v>#NUM!</v>
+      </c>
+      <c r="V19" t="e">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>152.65016068283893</v>
-      </c>
-      <c r="W19">
+        <v>#NUM!</v>
+      </c>
+      <c r="W19" t="e">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>187.18411951003728</v>
-      </c>
-      <c r="X19">
+        <v>#NUM!</v>
+      </c>
+      <c r="X19" t="e">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>224.99872399952622</v>
-      </c>
-      <c r="Y19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y19" t="e">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>276.808160988547</v>
-      </c>
-      <c r="Z19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z19" t="e">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>334.65476062644518</v>
-      </c>
-      <c r="AA19">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA19" t="e">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>400.16738077736971</v>
-      </c>
-      <c r="AB19" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB19" s="43" t="e">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>484.76795885747674</v>
-      </c>
-      <c r="AC19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC19" s="44" t="e">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>582.34962545223891</v>
-      </c>
-      <c r="AD19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD19" s="44" t="e">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>683.71921434223509</v>
-      </c>
-      <c r="AE19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="44" t="e">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>785.15165606921823</v>
-      </c>
-      <c r="AF19" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF19" s="45" t="e">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>897.82497259553304</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.8810759873585643</v>
+        <v>-1.8168812763876629</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>5.0264996349747726</v>
+        <v>-10.50636400522313</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.5905125469276706</v>
+        <v>-539.16175313402982</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>6.0589127840514916</v>
+        <v>-1381717.1886836172</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.5394903490184246</v>
+        <v>-7763389012514.3809</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>7.1254828334712998</v>
+        <v>-1.9956431735625683E+26</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.6125426234664557</v>
+        <v>-9.3581758501085183E+52</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.2353776030168184</v>
+        <v>-1.5541788938402379E+106</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.9170562762058712</v>
-      </c>
-      <c r="O24">
+        <v>-3.2672117981694339E+212</v>
+      </c>
+      <c r="O24" t="e">
         <f t="shared" si="60"/>
-        <v>9.7339924564388003</v>
-      </c>
-      <c r="P24">
+        <v>#NUM!</v>
+      </c>
+      <c r="P24" t="e">
         <f t="shared" si="60"/>
-        <v>10.599177208246168</v>
-      </c>
-      <c r="Q24">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q24" t="e">
         <f t="shared" si="60"/>
-        <v>11.493654974990079</v>
-      </c>
-      <c r="R24">
+        <v>#NUM!</v>
+      </c>
+      <c r="R24" t="e">
         <f t="shared" si="60"/>
-        <v>12.529426128241324</v>
-      </c>
-      <c r="S24">
+        <v>#NUM!</v>
+      </c>
+      <c r="S24" t="e">
         <f t="shared" si="60"/>
-        <v>13.414047932325092</v>
-      </c>
-      <c r="T24">
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" t="e">
         <f t="shared" si="60"/>
-        <v>14.061239262403905</v>
-      </c>
-      <c r="U24">
+        <v>#NUM!</v>
+      </c>
+      <c r="U24" t="e">
         <f t="shared" si="60"/>
-        <v>15.470345960796658</v>
-      </c>
-      <c r="V24">
+        <v>#NUM!</v>
+      </c>
+      <c r="V24" t="e">
         <f t="shared" si="60"/>
-        <v>16.858175316864575</v>
-      </c>
-      <c r="W24">
+        <v>#NUM!</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="60"/>
-        <v>18.397420808963904</v>
-      </c>
-      <c r="X24">
+        <v>#NUM!</v>
+      </c>
+      <c r="X24" t="e">
         <f t="shared" si="60"/>
-        <v>20.585213383574526</v>
-      </c>
-      <c r="Y24">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y24" t="e">
         <f t="shared" si="60"/>
-        <v>23.544280844235228</v>
-      </c>
-      <c r="Z24">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z24" t="e">
         <f t="shared" si="60"/>
-        <v>27.717259069358754</v>
-      </c>
-      <c r="AA24">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA24" t="e">
         <f t="shared" si="60"/>
-        <v>31.802899997322669</v>
-      </c>
-      <c r="AB24" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB24" s="43" t="e">
         <f t="shared" si="60"/>
-        <v>37.209416273421176</v>
-      </c>
-      <c r="AC24" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>44.281368644709509</v>
-      </c>
-      <c r="AD24" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>50.212100340985586</v>
-      </c>
-      <c r="AE24" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>55.919977009882388</v>
-      </c>
-      <c r="AF24" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF24" s="45" t="e">
         <f t="shared" si="60"/>
-        <v>64.760868441709022</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,367 +15164,367 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>4.4043896658370674</v>
+        <v>-1.2935675979091601</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>5.5797355894018752</v>
+        <v>-9.9531280507960282</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>6.1361556424619206</v>
+        <v>-538.61611003849555</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>6.6006773932756779</v>
+        <v>-1381716.6469190079</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>7.0780955765297922</v>
+        <v>-7763389012513.8418</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.6674165402261334</v>
+        <v>-1.9956431735625683E+26</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>8.2144726263278134</v>
+        <v>-9.3581758501085183E+52</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.8677120427806102</v>
+        <v>-1.5541788938402379E+106</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5585000682434309</v>
-      </c>
-      <c r="O25" s="6">
+        <v>-3.2672117981694339E+212</v>
+      </c>
+      <c r="O25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>10.455388052112301</v>
-      </c>
-      <c r="P25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="P25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>11.374077841860542</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>12.349087104068882</v>
-      </c>
-      <c r="R25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="R25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>13.659836626865335</v>
-      </c>
-      <c r="S25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="S25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>15.101110496024823</v>
-      </c>
-      <c r="T25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>16.27319965664832</v>
-      </c>
-      <c r="U25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="U25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>18.769937937324325</v>
-      </c>
-      <c r="V25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="V25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>22.209794596349859</v>
-      </c>
-      <c r="W25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="W25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>28.384241635211581</v>
-      </c>
-      <c r="X25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="X25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>38.229898763162318</v>
-      </c>
-      <c r="Y25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>55.101643470497862</v>
-      </c>
-      <c r="Z25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>70.240670710934651</v>
-      </c>
-      <c r="AA25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>91.507700350858016</v>
-      </c>
-      <c r="AB25" s="49">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB25" s="49" t="e">
         <f t="shared" si="61"/>
-        <v>120.02723652594645</v>
-      </c>
-      <c r="AC25" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>145.59812914976001</v>
-      </c>
-      <c r="AD25" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>172.22995569452098</v>
-      </c>
-      <c r="AE25" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>208.07741620180158</v>
-      </c>
-      <c r="AF25" s="51">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF25" s="51" t="e">
         <f t="shared" si="61"/>
-        <v>256.20523298716364</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="17" t="e">
         <f>AF25-$AF$3</f>
-        <v>24.746333042909754</v>
-      </c>
-      <c r="C26" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="C26" s="18" t="e">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>16.056452944576989</v>
+        <v>#NUM!</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="e">
         <f>SUM(F26:AA26)</f>
-        <v>2046.1647595185452</v>
+        <v>#NUM!</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.831384908906749</v>
+        <v>3.4106833609218383</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>25.342087236814365</v>
+        <v>110.22419558301716</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>31.297211032770765</v>
+        <v>290691.21379464626</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>36.748718942934389</v>
+        <v>1909142380773.0146</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>42.721411987900083</v>
+        <v>6.0270208959629059E+25</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>49.921100009682888</v>
+        <v>3.982591676186879E+52</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>57.488819480152351</v>
+        <v>8.757545524155429E+105</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>67.671489333183132</v>
-      </c>
-      <c r="N26">
+        <v>2.4154720340584655E+212</v>
+      </c>
+      <c r="N26" t="e">
         <f t="shared" si="62"/>
-        <v>78.094415459115453</v>
-      </c>
-      <c r="O26">
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" t="e">
         <f t="shared" si="62"/>
-        <v>93.711836659696658</v>
-      </c>
-      <c r="P26">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" t="e">
         <f t="shared" si="62"/>
-        <v>110.64190763102165</v>
-      </c>
-      <c r="Q26">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q26" t="e">
         <f t="shared" si="62"/>
-        <v>125.8587047775561</v>
-      </c>
-      <c r="R26">
+        <v>#NUM!</v>
+      </c>
+      <c r="R26" t="e">
         <f t="shared" si="62"/>
-        <v>143.347318767611</v>
-      </c>
-      <c r="S26">
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" t="e">
         <f t="shared" si="62"/>
-        <v>166.13019034622593</v>
-      </c>
-      <c r="T26">
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" si="62"/>
-        <v>168.31449623768555</v>
-      </c>
-      <c r="U26">
+        <v>#NUM!</v>
+      </c>
+      <c r="U26" t="e">
         <f t="shared" si="62"/>
-        <v>180.05127560331132</v>
-      </c>
-      <c r="V26">
+        <v>#NUM!</v>
+      </c>
+      <c r="V26" t="e">
         <f t="shared" si="62"/>
-        <v>149.40108778460601</v>
-      </c>
-      <c r="W26">
+        <v>#NUM!</v>
+      </c>
+      <c r="W26" t="e">
         <f t="shared" si="62"/>
-        <v>115.33806856770806</v>
-      </c>
-      <c r="X26">
+        <v>#NUM!</v>
+      </c>
+      <c r="X26" t="e">
         <f t="shared" si="62"/>
-        <v>44.522738498232201</v>
-      </c>
-      <c r="Y26">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y26" t="e">
         <f t="shared" si="62"/>
-        <v>158.21191594210558</v>
-      </c>
-      <c r="Z26">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z26" t="e">
         <f t="shared" si="62"/>
-        <v>111.00456418792534</v>
-      </c>
-      <c r="AA26">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA26" t="e">
         <f t="shared" si="62"/>
-        <v>75.514016123399614</v>
-      </c>
-      <c r="AB26" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB26" s="43" t="e">
         <f t="shared" si="62"/>
-        <v>350.08191292852246</v>
-      </c>
-      <c r="AC26" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>556.02931230491731</v>
-      </c>
-      <c r="AD26" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>402.90591874722105</v>
-      </c>
-      <c r="AE26" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>276.65840740270744</v>
-      </c>
-      <c r="AF26" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF26" s="45" t="e">
         <f t="shared" si="62"/>
-        <v>612.38099907060712</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="20" t="e">
         <f>(B26/$AF$3)*100</f>
-        <v>10.69145885030553</v>
-      </c>
-      <c r="C27" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="C27" s="21" t="e">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>10.802163828382415</v>
+        <v>#NUM!</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="e">
         <f>SUM(F27:AA27)</f>
-        <v>202.89957740820631</v>
+        <v>#NUM!</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.8511537114099652</v>
+        <v>1.8468035523362625</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>5.0340924938676253</v>
+        <v>10.498771146330277</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.5943910332377342</v>
+        <v>539.15787464771972</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>6.0620721657643095</v>
+        <v>1381717.1855242355</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.5361618697749586</v>
+        <v>7763389012514.3838</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>7.0654865373647757</v>
+        <v>1.9956431735625683E+26</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.5821381865640216</v>
+        <v>9.3581758501085183E+52</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.2262682507430505</v>
-      </c>
-      <c r="N27">
+        <v>1.5541788938402379E+106</v>
+      </c>
+      <c r="N27" t="e">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.8371044725699299</v>
-      </c>
-      <c r="O27">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" t="e">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.6804874184979273</v>
-      </c>
-      <c r="P27">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" t="e">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.518645712781739</v>
-      </c>
-      <c r="Q27">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q27" t="e">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.218676605444873</v>
-      </c>
-      <c r="R27">
+        <v>#NUM!</v>
+      </c>
+      <c r="R27" t="e">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>11.972774063165604</v>
-      </c>
-      <c r="S27">
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" t="e">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>12.889150101780409</v>
-      </c>
-      <c r="T27">
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" t="e">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>12.973607680120651</v>
-      </c>
-      <c r="U27">
+        <v>#NUM!</v>
+      </c>
+      <c r="U27" t="e">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>13.418318657839041</v>
-      </c>
-      <c r="V27">
+        <v>#NUM!</v>
+      </c>
+      <c r="V27" t="e">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>12.222973770102184</v>
-      </c>
-      <c r="W27">
+        <v>#NUM!</v>
+      </c>
+      <c r="W27" t="e">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>10.739556255623789</v>
-      </c>
-      <c r="X27">
+        <v>#NUM!</v>
+      </c>
+      <c r="X27" t="e">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>6.6725361368996872</v>
-      </c>
-      <c r="Y27">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y27" t="e">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>12.578231828921965</v>
-      </c>
-      <c r="Z27">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z27" t="e">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>10.535870357399304</v>
-      </c>
-      <c r="AA27">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA27" t="e">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>8.6898800983327504</v>
-      </c>
-      <c r="AB27" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB27" s="43" t="e">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>18.710476020895953</v>
-      </c>
-      <c r="AC27" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC27" s="44" t="e">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>23.580273796224617</v>
-      </c>
-      <c r="AD27" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD27" s="44" t="e">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>20.072516502601786</v>
-      </c>
-      <c r="AE27" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE27" s="44" t="e">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>16.633051656346993</v>
-      </c>
-      <c r="AF27" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF27" s="45" t="e">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>24.746333042909754</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.8099043100816559E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.767655493628336</v>
+        <v>2.3075193447597009E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.2295874631627086E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>4.8768056676540272E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>7.9878453959258966E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>1.7124289923917679E-3</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>2.4506140647875263E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819014</v>
+        <v>3.7646323615687649E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>6.6728226663601564E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>1.2780242714303336E-2</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.0876088773911117E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>3.3776982169187675E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511873028</v>
+        <v>8.2880406438914811E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.16876137929769441</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.31253823902639399</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.84181839011006154</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>1.2143056331726911</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>1.574740456893009</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>2.6875662967603215</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>3.2340078658219715</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189088</v>
+        <v>4.3647572241229504</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>7.1297899808359677</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>8.7024902847033339</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>9.487320091618237</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>11.319724690511187</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>15.426669560877727</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>10.488030409036364</v>
+        <v>0.52378941760804321</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>13.481888056274414</v>
+        <v>0.52397040803905137</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>17.24954354990275</v>
+        <v>0.52420115997352734</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>22.158689055415273</v>
+        <v>0.52452411871984361</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.520983405550137</v>
+        <v>0.52501179928660902</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>37.204831896350527</v>
+        <v>0.52581058382620161</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>47.233752849810529</v>
+        <v>0.52752301281859337</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>61.064086414379702</v>
+        <v>0.5299736268833809</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.790001618198716</v>
+        <v>0.53373825924494966</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.56640532254495</v>
+        <v>0.54041108191130982</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>132.25789966045053</v>
+        <v>0.55319132462561316</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>169.32614899581148</v>
+        <v>0.57406741339952427</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>217.38362613079457</v>
+        <v>0.60784439556871195</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.9481296426676</v>
+        <v>0.69072480200762676</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>324.0136099219917</v>
+        <v>0.85948618130532117</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.51298283519372</v>
+        <v>1.1720244203317152</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>506.33605361130117</v>
+        <v>2.0138428104417767</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.85950466534564</v>
+        <v>3.2281484436144678</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>725.18306317025292</v>
+        <v>4.8028889005074769</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.80477284265044</v>
+        <v>7.4904551972677984</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>969.25649349186995</v>
+        <v>10.72446306308977</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1107.1790464037608</v>
+        <v>15.08922028721272</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1252.1332562150449</v>
+        <v>22.219010268048688</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.6093131163279</v>
+        <v>30.921500552752022</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1533.1931007317489</v>
+        <v>40.408820644370259</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.9046562420885</v>
+        <v>51.728545334881446</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1794.504886187596</v>
+        <v>67.155214895759173</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1563.045986243342</v>
+        <v>-164.30368504849471</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>538.68476009210644</v>
+        <v>-96.575085083182188</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4065564.3874071804</v>
+        <v>9228.1759135091779</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>98.700140855334951</v>
+        <v>8.6709853063620117E-4</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.34643368427533</v>
+        <v>4.6970538326451735E-4</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.14987713058207</v>
+        <v>3.0847474958048984E-4</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.42802472559197</v>
+        <v>1.9827762479874447E-4</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>782.82722204765764</v>
+        <v>2.863509523631606E-4</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1339.772427024393</v>
+        <v>5.7941659542496797E-3</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2171.6921978282426</v>
+        <v>1.0985435218288733E-2</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3650.8957414672768</v>
+        <v>1.2425597719500057E-2</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6094.7072463002605</v>
+        <v>3.52152759154582E-2</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10361.510426836574</v>
+        <v>5.4985349857903855E-2</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17266.608473333206</v>
+        <v>9.1349503876511653E-2</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28289.806448614272</v>
+        <v>0.3095176284770994</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>46525.007534653785</v>
+        <v>1.1647118544240722</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>71682.656323820294</v>
+        <v>2.3141577270880109</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>102857.48130672342</v>
+        <v>5.9541162918776802</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>166595.69869965519</v>
+        <v>17.469013186662931</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>246362.56088631126</v>
+        <v>63.568378440524157</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>349534.96254309127</v>
+        <v>207.83653722628307</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>481116.61245514132</v>
+        <v>715.80186434212294</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>653318.75886506191</v>
+        <v>1227.3080372287884</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>827284.28249081119</v>
+        <v>2399.0734410858136</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1049315.9216420627</v>
+        <v>4587.1632532613339</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1324378.6067982314</v>
+        <v>6256.4540925551191</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1665626.3108502899</v>
+        <v>8298.5458579902079</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>1907259.4984447553</v>
+        <v>12487.7537472856</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2034788.963787246</v>
+        <v>19520.510137681562</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>2443112.7551114215</v>
+        <v>26995.700920514944</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>675.30174325541009</v>
+        <v>-70.986116795710473</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>362.40638268324045</v>
+        <v>-64.972001874227686</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6447.9553789707561</v>
+        <v>211.77885427111278</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9347944546092624</v>
+        <v>2.9446536819059066E-2</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.936244960740165</v>
+        <v>2.1672687495198129E-2</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.707778940678562</v>
+        <v>1.7563449250659446E-2</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.620083827903905</v>
+        <v>1.4081108791524355E-2</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.979049698795304</v>
+        <v>1.6921907468224751E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.602901893489168</v>
+        <v>7.6119419035156066E-2</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.601418410046733</v>
+        <v>0.10481142694519874</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.422642622342138</v>
+        <v>0.11147016515417951</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.068606022525216</v>
+        <v>0.18765733642855054</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>101.79150468893057</v>
+        <v>0.23448955170306385</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.40246753137174</v>
+        <v>0.30224080445319035</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.19573849718748</v>
+        <v>0.55634308522448572</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>215.69656356709484</v>
+        <v>1.0792181681310189</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>267.73616924842315</v>
+        <v>1.5212355922367879</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>320.71401794546404</v>
+        <v>2.4401057952223466</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>408.16136355570842</v>
+        <v>4.1795948591535677</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>496.34923278505352</v>
+        <v>7.9729780158058983</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>591.21481928575781</v>
+        <v>14.416536935973323</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>693.62570054399032</v>
+        <v>26.754473725755155</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>808.28136120107456</v>
+        <v>35.032956444308098</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>909.5516931383346</v>
+        <v>48.980337290445576</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1024.3612261512355</v>
+        <v>67.72859996531254</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1150.8164957099943</v>
+        <v>79.097750237001804</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1290.5914577627925</v>
+        <v>91.096354800783374</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1381.0356615398298</v>
+        <v>111.74861854754894</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1426.4602916966339</v>
+        <v>139.71581921057316</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1563.045986243342</v>
+        <v>164.30368504849471</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.6475651849079398E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.1545862792216042E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460541</v>
+        <v>3.0660939328763792E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.6844563461867494E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>7.7404226334820692E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>1.6635887076394962E-3</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>2.4200979345686546E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.06101008665874</v>
+        <v>3.7565307008763371E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>6.6914414554175572E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>1.285728187534807E-2</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.1082447572240759E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>3.4147970540995276E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371527</v>
+        <v>8.36075122306843E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.16993034085934988</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.31378246731402248</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.84301315950118849</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>1.2112922319202304</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>1.5667806936683322</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>2.6769805058273795</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>3.2343172209425068</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173104</v>
+        <v>4.4019597425020791</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>7.2616930202792371</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>9.01740654933689</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>10.075102164933249</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>12.319455950299485</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>17.114241115311742</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.8333942384834145</v>
+        <v>0.52371042136632662</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.60280858310567</v>
+        <v>0.52387517788481741</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>15.16652455549452</v>
+        <v>0.52409063651273957</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.890967892240575</v>
+        <v>0.52439724590602721</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>26.112040298255049</v>
+        <v>0.52486569154064588</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.694909680873778</v>
+        <v>0.52563973380399409</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.795877905537601</v>
+        <v>0.52730332251163359</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.789640708584287</v>
+        <v>0.52972342044620224</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.850650795243027</v>
+        <v>0.53347995114707858</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>101.13585838590046</v>
+        <v>0.54017139260249614</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.54075314326028</v>
+        <v>0.55302867447784421</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>169.47152044786347</v>
+        <v>0.57411112205008497</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>218.44751543564777</v>
+        <v>0.60825909259108024</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.7857017620193</v>
+        <v>0.69186660482176454</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>326.23720003179733</v>
+        <v>0.86179694568111442</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.77620301823998</v>
+        <v>1.1755794129951369</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.94789071486434</v>
+        <v>2.0185925724963254</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>609.25002431191922</v>
+        <v>3.2298848044165558</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>724.12925548921828</v>
+        <v>4.796665498084888</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.75335112038886</v>
+        <v>7.4736460039122674</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.68961703930995</v>
+        <v>10.707963224854774</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.751948131041</v>
+        <v>15.109922967356853</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.9369761202802</v>
+        <v>22.37161598763609</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1434.3270968472564</v>
+        <v>31.389022536972981</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.7449895800783</v>
+        <v>41.464124701906229</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.8155193127363</v>
+        <v>53.783580652205714</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1895.2699497445558</v>
+        <v>70.897821767517456</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1663.8110498003018</v>
+        <v>-160.56107817673643</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>637.87692192178611</v>
+        <v>-92.85318089156803</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4066206.4221795192</v>
+        <v>9228.3289894837508</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>68.561021209026379</v>
+        <v>8.7175710252295618E-4</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.26090861954054</v>
+        <v>4.7384223879245703E-4</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>213.88360348603308</v>
+        <v>3.1236931140498091E-4</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.51394070720488</v>
+        <v>2.0186674129770135E-4</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>653.83035110068283</v>
+        <v>2.9131714335174901E-4</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1162.3312633253679</v>
+        <v>5.820205152844927E-3</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1950.4185714532923</v>
+        <v>1.1031535591236671E-2</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3381.2128046454941</v>
+        <v>1.248144142851115E-2</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5795.6634972411839</v>
+        <v>3.5312289457780449E-2</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10072.321840956152</v>
+        <v>5.5097816586012087E-2</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17078.653128579663</v>
+        <v>9.1447849354594449E-2</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28338.729298941929</v>
+        <v>0.30946899637653763</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>46985.093929252012</v>
+        <v>1.1638169292760734</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>72670.002035019963</v>
+        <v>2.3106851286413126</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>104288.69869645897</v>
+        <v>5.9428446124201493</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>168448.33893713006</v>
+        <v>17.439308966515043</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>247965.22712461581</v>
+        <v>63.492661503881266</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>349996.87705323868</v>
+        <v>207.78647562195695</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>479655.82678377733</v>
+        <v>716.13491078606046</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>650006.71531201049</v>
+        <v>1228.4860712551463</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>824436.42733189976</v>
+        <v>2400.6900486144514</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1052540.8347458506</v>
+        <v>4584.359354778916</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1344719.0444635118</v>
+        <v>6232.3358428754455</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1722155.5453098251</v>
+        <v>8213.5853376924188</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2020911.1634186069</v>
+        <v>12253.009872784914</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2224187.9212718955</v>
+        <v>18950.491422103772</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>2768267.2094375826</v>
+        <v>25779.859825276068</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>718.83649762485925</v>
+        <v>-69.369152888658434</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>429.13905311014889</v>
+        <v>-62.468047920628088</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6432.7894887104922</v>
+        <v>211.78559106133616</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.2801582840563128</v>
+        <v>2.9525533060775655E-2</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.057165487571421</v>
+        <v>2.1767917649432089E-2</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.624759946270334</v>
+        <v>1.7673972711447217E-2</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.352362664729206</v>
+        <v>1.4207981605340758E-2</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.570106591500217</v>
+        <v>1.7068015214187882E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.092979678012419</v>
+        <v>7.629026905736358E-2</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.163543465773806</v>
+        <v>0.10503111725215852</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.148196916546723</v>
+        <v>0.11172037159135817</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.129255199569528</v>
+        <v>0.18791564452642162</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.36095775228608</v>
+        <v>0.23472924101187753</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>130.68532101418148</v>
+        <v>0.3024034546009593</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.34110994923947</v>
+        <v>0.55629937657392503</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>216.76045287194805</v>
+        <v>1.0788034711086507</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>269.57374136777486</v>
+        <v>1.5200937894226503</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>322.93760805526966</v>
+        <v>2.4377950308465537</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>410.42458373875468</v>
+        <v>4.1760398664901466</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>497.96106988861669</v>
+        <v>7.9682282537513487</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>591.60533893233139</v>
+        <v>14.414800575171235</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>692.57189286295568</v>
+        <v>26.760697128177743</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>806.22993947881298</v>
+        <v>35.049765637663633</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>907.9848166857746</v>
+        <v>48.996837128680575</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1025.9341278785157</v>
+        <v>67.707897285168414</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1159.6202156152297</v>
+        <v>78.945144517414406</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1312.3092414937209</v>
+        <v>90.628832816562408</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1421.5875503881591</v>
+        <v>110.69331449001297</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1491.3711547672817</v>
+        <v>137.66078389324889</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1663.8110498003018</v>
+        <v>160.56107817673643</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737854</v>
+        <v>1.1839014549797078E-4</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166009</v>
+        <v>1.7649615734316448E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.719676810113425E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.16987198261298</v>
+        <v>4.3644857045188612E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>7.432273566028158E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>1.6033321793276212E-3</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>2.4396413773990488E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398951</v>
+        <v>3.8646138158543453E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>6.9067681854918517E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>1.3255866682955975E-2</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.1712528076888171E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>3.4943665251089273E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290332</v>
+        <v>8.488159829582953E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.17117470247307942</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.31354918254163211</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.8390696588615425</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>1.1988286866332913</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>1.5500646773803108</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>2.664386543278483</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>3.2582889004116193</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584672</v>
+        <v>4.509325616412001</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>7.5576760865238626</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>9.6384933557705459</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>11.147033121177131</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>14.063247385333604</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485074</v>
+        <v>19.992149555257427</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>4.1502455602128085</v>
+        <v>0.5234868367792328</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>6.2761417101865939</v>
+        <v>0.52360522692473077</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>9.3444797234031949</v>
+        <v>0.52378172308207394</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.750272774576912</v>
+        <v>0.52405369076308528</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.920144757189892</v>
+        <v>0.52449013933353716</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.725054754767633</v>
+        <v>0.52523336669013998</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.617815653340891</v>
+        <v>0.5268366988694676</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.725558061506696</v>
+        <v>0.52927634024686665</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>74.305495300905648</v>
+        <v>0.533140954062721</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>100.3977518456079</v>
+        <v>0.54004772224821285</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.75288817929567</v>
+        <v>0.55330358893116882</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>172.4814608018352</v>
+        <v>0.57501611700805699</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.81056954777185</v>
+        <v>0.60995978225914627</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.57318772806218</v>
+        <v>0.6948413805549758</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>330.29716918090122</v>
+        <v>0.86601608302805522</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>418.31372217719286</v>
+        <v>1.1795652655696873</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.96226289168123</v>
+        <v>2.0186349244312298</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>606.45641135312235</v>
+        <v>3.2174636110645212</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>719.19545670237471</v>
+        <v>4.767528288444832</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.66040993557738</v>
+        <v>7.431914831723315</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>966.00311984122789</v>
+        <v>10.690203732134934</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.5598604770746</v>
+        <v>15.199529348546935</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1283.1813684196482</v>
+        <v>22.757205435070798</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1481.0901965654541</v>
+        <v>32.395698790841344</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.6190769977088</v>
+        <v>43.542731912018475</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.5507655466452</v>
+        <v>57.605979297352079</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.6674353514959</v>
+        <v>77.598128852609506</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1844.2085354072419</v>
+        <v>-153.86077109164438</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>811.4664951826926</v>
+        <v>-86.242480187666061</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4066919.6468719039</v>
+        <v>9222.721304334902</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>12.938478104114642</v>
+        <v>8.8501000082677884E-4</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>32.838614372532433</v>
+        <v>4.8566765285041095E-4</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.487793381395562</v>
+        <v>3.2338419400019445E-4</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.54815937418488</v>
+        <v>2.1174722173662155E-4</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>375.51506351520345</v>
+        <v>3.0427804438132018E-4</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>790.91014581128331</v>
+        <v>5.8823739999801375E-3</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1519.8677454541726</v>
+        <v>1.112977333380603E-2</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2925.0914163129946</v>
+        <v>1.2581537241217609E-2</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5414.6197294295462</v>
+        <v>3.543981008800292E-2</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9924.7124836069979</v>
+        <v>5.5155889977161789E-2</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17396.938912518894</v>
+        <v>9.1281654771740897E-2</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29361.182440013614</v>
+        <v>0.30846291913056684</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>48895.605340934992</v>
+        <v>1.1601504017870439</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>75274.083064118822</v>
+        <v>2.3016501016980162</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>106927.41549753024</v>
+        <v>5.922291629422439</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>170537.69842969681</v>
+        <v>17.406034695029234</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>247979.54090026399</v>
+        <v>63.491986565906345</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>346699.24864393269</v>
+        <v>208.14472795815175</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>472846.14842462802</v>
+        <v>717.69522384772154</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>641820.49003552296</v>
+        <v>1231.4131483558942</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>821376.64390621567</v>
+        <v>2402.4306819585968</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1066556.1216471647</v>
+        <v>4572.2332647750391</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1396803.9514411255</v>
+        <v>6171.6036927931727</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>1847077.6286472459</v>
+        <v>8032.1309469480429</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2254387.0498024444</v>
+        <v>11797.154637498521</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>2598887.0481490116</v>
+        <v>17912.713365819502</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>3401105.1220689244</v>
+        <v>23673.13688091539</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>796.77581456207281</v>
+        <v>-66.474337832203148</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>545.92343978233896</v>
+        <v>-58.020622809338462</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6398.4153139790178</v>
+        <v>211.78623532609993</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.5970096057857064</v>
+        <v>2.9749117647869472E-2</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.730498614652344</v>
+        <v>2.2037868609518729E-2</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8027151141790085</v>
+        <v>1.7982886142112853E-2</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.211667547065543</v>
+        <v>1.455153674828269E-2</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.378211050435059</v>
+        <v>1.7443567421296602E-2</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.123124751906275</v>
+        <v>7.6696636171217691E-2</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>38.985481213577096</v>
+        <v>0.10549774089432451</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.084114269469133</v>
+        <v>0.11216745179069376</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.584099705232148</v>
+        <v>0.18825464161077921</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.62285121199352</v>
+        <v>0.23485291136616082</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>131.89745605021687</v>
+        <v>0.30212854014763468</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.3510503032112</v>
+        <v>0.555394381615953</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>221.12350698407212</v>
+        <v>1.0771027814405847</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>274.36122733381774</v>
+        <v>1.517119013689439</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>326.99757720437356</v>
+        <v>2.4335758934996128</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>412.96210289770755</v>
+        <v>4.1720540139155959</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>497.97544206543358</v>
+        <v>7.9681859018164447</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>588.81172597353452</v>
+        <v>14.427221768523271</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>687.63809407611211</v>
+        <v>26.789834337817798</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>801.1369982940015</v>
+        <v>35.091496809852586</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>906.29831948769254</v>
+        <v>49.014596621400415</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1032.7420402245493</v>
+        <v>67.618290903978334</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1181.8646079145976</v>
+        <v>78.559555069979695</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1359.0723412119187</v>
+        <v>89.622156562694045</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1501.4616378057897</v>
+        <v>108.61470727990073</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1612.1064010011905</v>
+        <v>133.8383852481025</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1844.2085354072419</v>
+        <v>153.86077109164438</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983957</v>
+        <v>1.163919913427236E-4</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987479</v>
+        <v>1.7473057050698682E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.7037958110276428E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.163239316733689</v>
+        <v>4.3498383580176103E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>7.4178602145769101E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>1.6005768421568645E-3</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>2.4395070520466522E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613803</v>
+        <v>3.867068364914128E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>6.9117423676853251E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>1.3264847650729106E-2</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.1727184698070667E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>3.4962281515779181E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547881</v>
+        <v>8.491023422562638E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.17120532603066818</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.31355602372607339</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.83902407807655255</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>1.198634601028131</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>1.5497954408669319</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>2.6641983077960179</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>3.2587223992437071</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791261</v>
+        <v>4.5112001286456636</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>7.5628646245153899</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>9.6494864476421576</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>11.16631607492188</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>14.095237607851473</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957997012</v>
+        <v>20.046003154377296</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.9977205175054236</v>
+        <v>0.52347955487318243</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>6.0930277503038193</v>
+        <v>0.52359594686452515</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>9.1363040797025672</v>
+        <v>0.52377067743503214</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.524457531201941</v>
+        <v>0.5240410570161349</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.68769684793563</v>
+        <v>0.52447604085193666</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>28.496762532324109</v>
+        <v>0.52521782687339436</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>39.41479669473707</v>
+        <v>0.52681840371555122</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.558028998483429</v>
+        <v>0.52925791076759787</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>74.185557156097232</v>
+        <v>0.533124979132512</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>100.33209565738522</v>
+        <v>0.54003672150019733</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.74398269481739</v>
+        <v>0.55330156915092643</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.52348991719896</v>
+        <v>0.5750287538489971</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.89074819152785</v>
+        <v>0.60999103536477628</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.66957076407573</v>
+        <v>0.69490126959040266</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>330.38426715971326</v>
+        <v>0.86610659562107084</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>418.37570065503979</v>
+        <v>1.1796626193471442</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.97983211499457</v>
+        <v>2.0186866974236968</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>606.42440425462928</v>
+        <v>3.2173212984518278</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>719.12576915837099</v>
+        <v>4.7671167393187597</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.58721123123689</v>
+        <v>7.4313150471147775</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.98732882171578</v>
+        <v>10.690037446358485</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.6896442696284</v>
+        <v>15.201237575004148</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.5792380579767</v>
+        <v>22.764102199519538</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.921233487044</v>
+        <v>32.413588647161696</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1655.0475067011439</v>
+        <v>43.579904722083576</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.7353665117462</v>
+        <v>57.675142329935049</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.9795060917163</v>
+        <v>77.721145484312345</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1847.5206061474623</v>
+        <v>-153.73775445994153</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>814.64878213035922</v>
+        <v>-86.121171782420447</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4067035.3659851481</v>
+        <v>9222.5725295638222</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>11.864473905284855</v>
+        <v>8.8544331441252106E-4</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.773476507972894</v>
+        <v>4.860767644649281E-4</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>73.866108709610813</v>
+        <v>3.2378158123275023E-4</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.63236005326576</v>
+        <v>2.1211506221421731E-4</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>366.5602462581972</v>
+        <v>3.0477009877717605E-4</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>778.12168184677319</v>
+        <v>5.8847579448082559E-3</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1504.0793785584267</v>
+        <v>1.1133633863333671E-2</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2906.9981603239371</v>
+        <v>1.2585671956318132E-2</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5396.9830337760404</v>
+        <v>3.5445825052723819E-2</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9911.6350810011427</v>
+        <v>5.5161057213575553E-2</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17394.589770331386</v>
+        <v>9.1282875242332515E-2</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29375.587672581943</v>
+        <v>0.30844888242933755</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>48931.070535335013</v>
+        <v>1.1600830771497948</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>75326.979889918119</v>
+        <v>2.3014683876959978</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>106984.38473969002</v>
+        <v>5.9218510990861262</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>170588.89179612065</v>
+        <v>17.405222374070981</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>247997.039292434</v>
+        <v>63.491161494929457</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>346661.55735857284</v>
+        <v>208.14883432965215</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>472750.31366110267</v>
+        <v>717.71727468291306</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>641703.21101302456</v>
+        <v>1231.4552433949896</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>821348.02140667825</v>
+        <v>2402.4469828467604</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1066824.2048484175</v>
+        <v>4572.0022529860498</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1397744.5658295832</v>
+        <v>6170.520126865501</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>1849337.1978589285</v>
+        <v>8028.9246119869495</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2258678.555017882</v>
+        <v>11789.080991548344</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>2605935.4390293336</v>
+        <v>17894.204812145046</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>3413332.3901394866</v>
+        <v>23635.29714638527</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>798.20676871463206</v>
+        <v>-66.421189462564953</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>548.06436001399129</v>
+        <v>-57.939011181182096</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6396.9442320198277</v>
+        <v>211.78563921317181</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4444845630783214</v>
+        <v>2.9756399553919843E-2</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5473846547695693</v>
+        <v>2.2047148669724348E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.5945394704783808</v>
+        <v>1.7993931789154649E-2</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.985852303690573</v>
+        <v>1.4564170495233064E-2</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.145763141180797</v>
+        <v>1.7457665902897102E-2</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.89483252946275</v>
+        <v>7.6712175987963316E-2</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.782462254973275</v>
+        <v>0.10551603604824089</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>53.916585206445866</v>
+        <v>0.11218588126996254</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.464161560423733</v>
+        <v>0.1882706165409882</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.557195023770845</v>
+        <v>0.23486391211417634</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>131.8885505657386</v>
+        <v>0.30213055992787707</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.39307941857496</v>
+        <v>0.5553817447750129</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>221.20368562782812</v>
+        <v>1.0770715283349546</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>274.45761036983129</v>
+        <v>1.5170591246540122</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>327.0846751831856</v>
+        <v>2.4334853809065971</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>413.02408137555449</v>
+        <v>4.1719566601381395</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>497.99301128874691</v>
+        <v>7.9681341288239782</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>588.77971887504145</v>
+        <v>14.427364081135963</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>687.56840653210838</v>
+        <v>26.790245886943872</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>801.06379958966102</v>
+        <v>35.092096594461118</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>906.28252846818043</v>
+        <v>49.014762907176859</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1032.8718240171031</v>
+        <v>67.616582677521123</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1182.2624775529262</v>
+        <v>78.552658305530954</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1359.9033781335086</v>
+        <v>89.604266706373693</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1502.8900675092248</v>
+        <v>108.57753446983563</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1614.2910019662916</v>
+        <v>133.76922221551953</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1847.5206061474623</v>
+        <v>153.73775445994153</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
